--- a/ExcelData/schedule/datedata.xlsx
+++ b/ExcelData/schedule/datedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="14568" windowHeight="6444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1380,8 +1380,8 @@
   <sheetPr/>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
